--- a/data/trans_bre/P31_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>-14,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>29,26%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-24,54%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38,69%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 4,42</t>
+          <t>-14,35; 5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 17,04</t>
+          <t>-2,4; 18,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 1,29</t>
+          <t>-24,69; 1,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 16,6</t>
+          <t>-0,33; 21,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 69,8</t>
+          <t>-37,91; 23,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 3,99</t>
+          <t>-7,2; 90,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-49,26; 3,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 123,33</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>14,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>23,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>57,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>38,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95,32%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 15,38</t>
+          <t>3,51; 25,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 22,04</t>
+          <t>0,36; 24,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 16,75</t>
+          <t>-3,51; 19,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 62,4</t>
+          <t>10,94; 35,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 83,06</t>
+          <t>10,93; 132,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 64,86</t>
+          <t>1,12; 89,49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 77,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33,6; 185,38</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-12,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,68</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,16</t>
+          <t>35,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>22,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>-23,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>48,97%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>161,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83,05%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 20,53</t>
+          <t>-41,61; 17,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 29,29</t>
+          <t>-20,66; 46,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 46,06</t>
+          <t>8,28; 59,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,61; 95,12</t>
+          <t>-4,83; 49,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 121,71</t>
+          <t>-60,08; 60,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,29; 240,53</t>
+          <t>-39,51; 310,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 659,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; 437,18</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>16,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65,1%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,04</t>
+          <t>-6,13; 9,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 16,23</t>
+          <t>2,6; 17,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 8,63</t>
+          <t>-7,43; 10,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 26,02</t>
+          <t>7,82; 24,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 59,83</t>
+          <t>-16,85; 36,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 26,93</t>
+          <t>5,83; 67,0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 35,39</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29,07; 116,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-9,95</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-14,7%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>29,26%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-24,54%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>38,69%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.090607217628941</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.798009626519613</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.330430812024082</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.664893016280624</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1852123103911666</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2433462507804308</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2085360230294968</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3892179312843493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,35; 5,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 18,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-24,69; 1,11</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 21,3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-37,91; 23,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 90,91</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-49,26; 3,8</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 123,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.08595384522064</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.931358995495882</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-22.70318115310221</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.5669639980274593</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4157542849415654</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1086766819852385</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4662762679241907</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.01737100613880335</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.294587274597648</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.32070853441223</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.691321157781524</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.78309195045525</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1669232904874438</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.8057980424413667</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.08771066374959358</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.295951614342073</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,44</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,2</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,54</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>23,09</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>57,18%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>38,61%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>23,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>95,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 25,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 24,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 19,9</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>10,94; 35,37</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>10,93; 132,79</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 89,49</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 77,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33,6; 185,38</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>16.0858130199751</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.84767534802537</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.410620456125034</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>22.79103784484071</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.68002890564476</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.375994544157271</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3072478749913579</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9527444894721913</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-12,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>18,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>35,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>22,78</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-23,5%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>48,97%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>161,9%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>83,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>4.89003477580007</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5140772901222681</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.636825251030399</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>10.83921983424628</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1767915072463025</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.01462590731349987</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.0570143622917082</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3370307516334116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-41,61; 17,92</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,66; 46,13</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,28; 59,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,83; 49,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-60,08; 60,76</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-39,51; 310,49</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 659,29</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 437,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>26.66747814353939</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.37174364749882</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.94869153291533</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>34.92791096932983</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.539848016168543</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8645382711864985</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8835781267545942</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.859767726136705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,83</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>16,09</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>35,07%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>65,1%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-14.42601205775025</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>21.01186013686491</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>36.37975795456131</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>20.2960919819682</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2724620474185019</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5838444845209471</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.683830706005943</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.700540882168301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 9,93</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 17,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 10,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 24,15</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-16,85; 36,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 67,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-18,28; 35,39</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>29,07; 116,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-44.45767187089275</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.55661912071151</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>9.207763578788656</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.197047631939764</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6473967306708319</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3426709931156615</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.100623470568882</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1775356399071118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.59850029423206</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>47.93245671519502</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>61.08759292784182</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>48.69636883773619</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.5646508598612934</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.200095198787172</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>7.065008629429046</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.993735873296935</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.128956316093928</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.51109149957691</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.752808028979004</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>15.85638639207716</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06863468475355179</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3344431032199669</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1102576855774338</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6354326637662773</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.830238436764863</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.060626594851764</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.33632594895834</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.853284685308029</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1677652495861763</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.0514681333247667</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1396949405913327</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2625549760568134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.36691133682002</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.19360290715323</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.01105332583835</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>23.90245754435066</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3856228369464</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6175877652448292</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.419687069690771</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.12245006636396</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
